--- a/PlainTimeInvariant/output/responsePercentiles.xlsx
+++ b/PlainTimeInvariant/output/responsePercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="252" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="336" uniqueCount="28">
   <si>
     <t>Time</t>
   </si>
@@ -150,31 +150,31 @@
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.85546875" customWidth="true"/>
     <col min="5" max="5" width="13.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.42578125" customWidth="true"/>
     <col min="7" max="7" width="13.28515625" customWidth="true"/>
     <col min="8" max="8" width="13.42578125" customWidth="true"/>
-    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
     <col min="10" max="10" width="13.28515625" customWidth="true"/>
     <col min="11" max="11" width="14.42578125" customWidth="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true"/>
+    <col min="12" max="12" width="15.7109375" customWidth="true"/>
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
-    <col min="15" max="15" width="15.42578125" customWidth="true"/>
+    <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="13.42578125" customWidth="true"/>
-    <col min="18" max="18" width="14.7109375" customWidth="true"/>
+    <col min="18" max="18" width="15.42578125" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="13.5703125" customWidth="true"/>
     <col min="21" max="21" width="13.5703125" customWidth="true"/>
     <col min="22" max="22" width="13.5703125" customWidth="true"/>
     <col min="23" max="23" width="13.42578125" customWidth="true"/>
-    <col min="24" max="24" width="16.42578125" customWidth="true"/>
+    <col min="24" max="24" width="15.42578125" customWidth="true"/>
     <col min="25" max="25" width="13" customWidth="true"/>
     <col min="26" max="26" width="13.42578125" customWidth="true"/>
-    <col min="27" max="27" width="15.7109375" customWidth="true"/>
+    <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="13" customWidth="true"/>
   </cols>
   <sheetData>
@@ -450,22 +450,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.85151470823320041</v>
+        <v>-0.84175341056621478</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0085549538642351042</v>
+        <v>-0.054076415403523356</v>
       </c>
       <c r="G4" s="0">
-        <v>0.83607940351210619</v>
+        <v>0.84031632905966602</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.83799942893589741</v>
+        <v>-0.82651863237265011</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0024282676720334558</v>
+        <v>0.027582150400857579</v>
       </c>
       <c r="J4" s="0">
-        <v>0.841913404666355</v>
+        <v>0.83663560855995245</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -477,49 +477,49 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.58313361128876462</v>
+        <v>-0.58474435161832439</v>
       </c>
       <c r="O4" s="0">
-        <v>-0.012957115782498189</v>
+        <v>-0.064473480294380547</v>
       </c>
       <c r="P4" s="0">
-        <v>0.58465379507352422</v>
+        <v>0.56964764638048848</v>
       </c>
       <c r="Q4" s="0">
-        <v>-0.58669775333662921</v>
+        <v>-0.58777666629135517</v>
       </c>
       <c r="R4" s="0">
-        <v>0.0031942440848175893</v>
+        <v>-0.0027307721347460331</v>
       </c>
       <c r="S4" s="0">
-        <v>0.59368546356378027</v>
+        <v>0.57969931290430132</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.83294804619141771</v>
+        <v>-0.83121492448572665</v>
       </c>
       <c r="U4" s="0">
-        <v>-0.6937387611548842</v>
+        <v>0.71101210555008332</v>
       </c>
       <c r="V4" s="0">
-        <v>0.82977829023371075</v>
+        <v>0.83405310868881688</v>
       </c>
       <c r="W4" s="0">
-        <v>-0.31486092296099677</v>
+        <v>-0.31439511777123474</v>
       </c>
       <c r="X4" s="0">
-        <v>0.0035364415241768768</v>
+        <v>-0.014502163335068624</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.30643916670461258</v>
+        <v>0.28992021714777438</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.29751395012393733</v>
+        <v>-0.3063633072222065</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.0011093040780966734</v>
+        <v>0.0169886576829897</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.30829872510080131</v>
+        <v>0.30930724868586179</v>
       </c>
     </row>
     <row r="5">
@@ -527,85 +527,85 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.037465992484946628</v>
+        <v>-0.034503870405333627</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00021689179009468101</v>
+        <v>0.0023357612223918961</v>
       </c>
       <c r="D5" s="0">
-        <v>0.038084247514583364</v>
+        <v>0.041181805890816311</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.69298229411728829</v>
+        <v>-0.68926087945926162</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0022851763600955101</v>
+        <v>-0.053111593714064514</v>
       </c>
       <c r="G5" s="0">
-        <v>0.68938378036337733</v>
+        <v>0.68966590156937579</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.68204961925815599</v>
+        <v>-0.68019506518487227</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0050420019865251324</v>
+        <v>0.021444713451547789</v>
       </c>
       <c r="J5" s="0">
-        <v>0.68324115182148015</v>
+        <v>0.67759402100469712</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.042786827688048916</v>
+        <v>-0.04143131844637718</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.0013144062849209685</v>
+        <v>0.00091626249320918111</v>
       </c>
       <c r="M5" s="0">
-        <v>0.040184338467489457</v>
+        <v>0.042539583473329035</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.58572445008292062</v>
+        <v>-0.58832491139392529</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.013734804104902716</v>
+        <v>-0.050155735132749936</v>
       </c>
       <c r="P5" s="0">
-        <v>0.59210878534314992</v>
+        <v>0.57919320410321107</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.58670171626315826</v>
+        <v>-0.5896615968975375</v>
       </c>
       <c r="R5" s="0">
-        <v>0.024387574047221462</v>
+        <v>-0.014986559815449827</v>
       </c>
       <c r="S5" s="0">
-        <v>0.5992820828139005</v>
+        <v>0.58351144333473703</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.76471561596641369</v>
+        <v>-0.76003471349353968</v>
       </c>
       <c r="U5" s="0">
-        <v>-0.59201733250310351</v>
+        <v>0.63023272690496879</v>
       </c>
       <c r="V5" s="0">
-        <v>0.76421408382558242</v>
+        <v>0.76874919592375046</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.38615178440777925</v>
+        <v>-0.3838737186704998</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.00058227388984190471</v>
+        <v>-0.0088264863204729933</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.37994625678153576</v>
+        <v>0.35107090448198425</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.36365892144764822</v>
+        <v>-0.37073559321544003</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.0021909488509275384</v>
+        <v>0.013309339278850793</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.37722509690299616</v>
+        <v>0.37386450343828692</v>
       </c>
     </row>
     <row r="6">
@@ -613,85 +613,85 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.048302267041601302</v>
+        <v>-0.046246180810088751</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0024722385895099598</v>
+        <v>0.0020217892478988277</v>
       </c>
       <c r="D6" s="0">
-        <v>0.047347988683044462</v>
+        <v>0.049799364679757895</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.5153786283240831</v>
+        <v>-0.50394456337170102</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.017128454305700591</v>
+        <v>-0.047363469046041717</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50829971079122349</v>
+        <v>0.51042737951593364</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.49472516077623807</v>
+        <v>-0.50666212737073013</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012515323284496035</v>
+        <v>0.022634060971296568</v>
       </c>
       <c r="J6" s="0">
-        <v>0.50051592799666678</v>
+        <v>0.49773105702602105</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.055287704183481196</v>
+        <v>-0.053866395796338493</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.0010330413773319111</v>
+        <v>0.0015792014261857635</v>
       </c>
       <c r="M6" s="0">
-        <v>0.052166461095505587</v>
+        <v>0.05467745964710731</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.55254065837344279</v>
+        <v>-0.55979409942094294</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.0065378739327397028</v>
+        <v>-0.032097418299727468</v>
       </c>
       <c r="P6" s="0">
-        <v>0.55761062823649232</v>
+        <v>0.54749267579732486</v>
       </c>
       <c r="Q6" s="0">
-        <v>-0.55996646552134843</v>
+        <v>-0.56472386590218326</v>
       </c>
       <c r="R6" s="0">
-        <v>0.031898975703302371</v>
+        <v>-0.0043691120031945276</v>
       </c>
       <c r="S6" s="0">
-        <v>0.5710343350803917</v>
+        <v>0.55737470935280964</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.70725175720990419</v>
+        <v>-0.7022136516023163</v>
       </c>
       <c r="U6" s="0">
-        <v>-0.52208555304048576</v>
+        <v>0.56635577177769902</v>
       </c>
       <c r="V6" s="0">
-        <v>0.70893618411431381</v>
+        <v>0.71039310593599292</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.45129489924827082</v>
+        <v>-0.45120910528948571</v>
       </c>
       <c r="X6" s="0">
-        <v>0.0021986724228654159</v>
+        <v>-0.0036195970315618842</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.44210635171725299</v>
+        <v>0.42450413124326969</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.42591060969625327</v>
+        <v>-0.43553845608292263</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.00074110220534205607</v>
+        <v>0.02084247888345429</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.43562228828932037</v>
+        <v>0.43418100999538434</v>
       </c>
     </row>
     <row r="7">
@@ -699,85 +699,85 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.068622568293929959</v>
+        <v>-0.064849431538444191</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0026227232758324576</v>
+        <v>-0.00069817596568327238</v>
       </c>
       <c r="D7" s="0">
-        <v>0.063328532776897345</v>
+        <v>0.067061558578337732</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.37870558817055455</v>
+        <v>-0.36771234175833706</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.01573218997078428</v>
+        <v>-0.026599288373160248</v>
       </c>
       <c r="G7" s="0">
-        <v>0.37673600706132981</v>
+        <v>0.37464414346499886</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.36439562103740974</v>
+        <v>-0.37146704150059173</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0092851656078651416</v>
+        <v>0.018138460908039812</v>
       </c>
       <c r="J7" s="0">
-        <v>0.36866028812382201</v>
+        <v>0.36246024556037965</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.064212656110940819</v>
+        <v>-0.064651945182852694</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.0022878553373467348</v>
+        <v>-0.00081286776158585893</v>
       </c>
       <c r="M7" s="0">
-        <v>0.064666872622013316</v>
+        <v>0.064507645715817269</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.52149494889219594</v>
+        <v>-0.52735124191001348</v>
       </c>
       <c r="O7" s="0">
-        <v>0.0010360029459462565</v>
+        <v>-0.03120813568265483</v>
       </c>
       <c r="P7" s="0">
-        <v>0.52573758246449909</v>
+        <v>0.51303232934760223</v>
       </c>
       <c r="Q7" s="0">
-        <v>-0.52886923469817515</v>
+        <v>-0.53724556971685367</v>
       </c>
       <c r="R7" s="0">
-        <v>0.027474478412709273</v>
+        <v>0.0024013163714469475</v>
       </c>
       <c r="S7" s="0">
-        <v>0.53071480994750975</v>
+        <v>0.52440873895254647</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.66005000619109644</v>
+        <v>-0.65282272619929937</v>
       </c>
       <c r="U7" s="0">
-        <v>-0.44106355386548141</v>
+        <v>0.50039565413899545</v>
       </c>
       <c r="V7" s="0">
-        <v>0.66200717238970674</v>
+        <v>0.66347113639944166</v>
       </c>
       <c r="W7" s="0">
-        <v>-0.50370986937857831</v>
+        <v>-0.50705193419469308</v>
       </c>
       <c r="X7" s="0">
-        <v>0.005497550106458385</v>
+        <v>-0.0065206178978043979</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.49595326011267293</v>
+        <v>0.48164399140645664</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.47725123291840532</v>
+        <v>-0.49407357793890039</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.0056751179220472462</v>
+        <v>0.023311173218143889</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.49338019758493967</v>
+        <v>0.4843558035547233</v>
       </c>
     </row>
   </sheetData>

--- a/PlainTimeInvariant/output/responsePercentiles.xlsx
+++ b/PlainTimeInvariant/output/responsePercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="494" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -97,6 +97,60 @@
   </si>
   <si>
     <t>STN___POL_3</t>
+  </si>
+  <si>
+    <t>GDP___DEM_4</t>
+  </si>
+  <si>
+    <t>GDP___DEM_5</t>
+  </si>
+  <si>
+    <t>GDP___SUP_4</t>
+  </si>
+  <si>
+    <t>GDP___SUP_5</t>
+  </si>
+  <si>
+    <t>GDP___POL_4</t>
+  </si>
+  <si>
+    <t>GDP___POL_5</t>
+  </si>
+  <si>
+    <t>CPI___DEM_4</t>
+  </si>
+  <si>
+    <t>CPI___DEM_5</t>
+  </si>
+  <si>
+    <t>CPI___SUP_4</t>
+  </si>
+  <si>
+    <t>CPI___SUP_5</t>
+  </si>
+  <si>
+    <t>CPI___POL_4</t>
+  </si>
+  <si>
+    <t>CPI___POL_5</t>
+  </si>
+  <si>
+    <t>STN___DEM_4</t>
+  </si>
+  <si>
+    <t>STN___DEM_5</t>
+  </si>
+  <si>
+    <t>STN___SUP_4</t>
+  </si>
+  <si>
+    <t>STN___SUP_5</t>
+  </si>
+  <si>
+    <t>STN___POL_4</t>
+  </si>
+  <si>
+    <t>STN___POL_5</t>
   </si>
 </sst>
 </file>
@@ -142,40 +196,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="13.85546875" customWidth="true"/>
     <col min="4" max="4" width="13.85546875" customWidth="true"/>
     <col min="5" max="5" width="13.42578125" customWidth="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="13.28515625" customWidth="true"/>
+    <col min="6" max="6" width="13.42578125" customWidth="true"/>
+    <col min="7" max="7" width="13.42578125" customWidth="true"/>
     <col min="8" max="8" width="13.42578125" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="13.28515625" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
-    <col min="12" max="12" width="15.7109375" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="13.42578125" customWidth="true"/>
-    <col min="15" max="15" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="13.7109375" customWidth="true"/>
+    <col min="12" max="12" width="13" customWidth="true"/>
+    <col min="13" max="13" width="13" customWidth="true"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="13.42578125" customWidth="true"/>
-    <col min="18" max="18" width="15.42578125" customWidth="true"/>
+    <col min="18" max="18" width="14.7109375" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="13.5703125" customWidth="true"/>
     <col min="21" max="21" width="13.5703125" customWidth="true"/>
     <col min="22" max="22" width="13.5703125" customWidth="true"/>
     <col min="23" max="23" width="13.42578125" customWidth="true"/>
-    <col min="24" max="24" width="15.42578125" customWidth="true"/>
+    <col min="24" max="24" width="14.42578125" customWidth="true"/>
     <col min="25" max="25" width="13" customWidth="true"/>
     <col min="26" max="26" width="13.42578125" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="13" customWidth="true"/>
+    <col min="29" max="29" width="14.42578125" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="13.5703125" customWidth="true"/>
+    <col min="33" max="33" width="13.5703125" customWidth="true"/>
+    <col min="34" max="34" width="13.5703125" customWidth="true"/>
+    <col min="35" max="35" width="13.5703125" customWidth="true"/>
+    <col min="36" max="36" width="13.5703125" customWidth="true"/>
+    <col min="37" max="37" width="13.42578125" customWidth="true"/>
+    <col min="38" max="38" width="13.42578125" customWidth="true"/>
+    <col min="39" max="39" width="13.7109375" customWidth="true"/>
+    <col min="40" max="40" width="13" customWidth="true"/>
+    <col min="41" max="41" width="13" customWidth="true"/>
+    <col min="42" max="42" width="13.42578125" customWidth="true"/>
+    <col min="43" max="43" width="13.42578125" customWidth="true"/>
+    <col min="44" max="44" width="16.42578125" customWidth="true"/>
+    <col min="45" max="45" width="13" customWidth="true"/>
+    <col min="46" max="46" width="13" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -263,6 +335,60 @@
       <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -349,6 +475,60 @@
       <c r="AB2" s="0">
         <v>0</v>
       </c>
+      <c r="AC2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -435,91 +615,199 @@
       <c r="AB3" s="0">
         <v>0</v>
       </c>
+      <c r="AC3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.17613781130729148</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.5929930201594773</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.91603359311868848</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.84175341056621478</v>
+        <v>-0.84288102403800402</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.054076415403523356</v>
+        <v>-0.46604018109112921</v>
       </c>
       <c r="G4" s="0">
-        <v>0.84031632905966602</v>
+        <v>-0.11605788093407968</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.82651863237265011</v>
+        <v>-0.73435765712463152</v>
       </c>
       <c r="I4" s="0">
-        <v>0.027582150400857579</v>
+        <v>-0.034055862562685238</v>
       </c>
       <c r="J4" s="0">
-        <v>0.83663560855995245</v>
+        <v>0.69733945927492103</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>0.095756874071633274</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.3574528735873217</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.59316503407024168</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.58474435161832439</v>
+        <v>0.088197069243820356</v>
       </c>
       <c r="O4" s="0">
-        <v>-0.064473480294380547</v>
+        <v>0.33676733189279906</v>
       </c>
       <c r="P4" s="0">
-        <v>0.56964764638048848</v>
+        <v>0.56895797606911436</v>
       </c>
       <c r="Q4" s="0">
-        <v>-0.58777666629135517</v>
+        <v>-0.46752916938782418</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.0027307721347460331</v>
+        <v>0.0013140220492892508</v>
       </c>
       <c r="S4" s="0">
-        <v>0.57969931290430132</v>
+        <v>0.47455045323302891</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.83121492448572665</v>
+        <v>-0.48176042331629176</v>
       </c>
       <c r="U4" s="0">
-        <v>0.71101210555008332</v>
+        <v>0.2476173598882532</v>
       </c>
       <c r="V4" s="0">
-        <v>0.83405310868881688</v>
+        <v>0.80037108882634844</v>
       </c>
       <c r="W4" s="0">
-        <v>-0.31439511777123474</v>
+        <v>-0.67909550375214245</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.014502163335068624</v>
+        <v>-0.022465295649708228</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.28992021714777438</v>
+        <v>0.65619202450085667</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.3063633072222065</v>
+        <v>-0.7985592849912897</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.0169886576829897</v>
+        <v>0.009760478350303789</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.30930724868586179</v>
+        <v>0.78602224987090885</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>-0.034578135972024977</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.50161221813307266</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>0.58805006640057056</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>-0.82869106788191471</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>-0.80646687045076504</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>0.69563874746121102</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>0.80534168719095978</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>0.83343521824943056</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>-0.29913620611177061</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>-0.23462647117699026</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>0.031923559284191279</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>0.25321260888201769</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>0.31305502461805446</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>-0.30079049498944865</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>-0.23462371019434547</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>-0.0008153808564716411</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>0.2358068892264904</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>0.30219681729784936</v>
       </c>
     </row>
     <row r="5">
@@ -527,85 +815,139 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.034503870405333627</v>
+        <v>0.15013913129186196</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0023357612223918961</v>
+        <v>0.54585873854771894</v>
       </c>
       <c r="D5" s="0">
-        <v>0.041181805890816311</v>
+        <v>0.85650967681009327</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.68926087945926162</v>
+        <v>-0.78478094094399009</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.053111593714064514</v>
+        <v>-0.44873156216498389</v>
       </c>
       <c r="G5" s="0">
-        <v>0.68966590156937579</v>
+        <v>-0.11924122533960618</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.68019506518487227</v>
+        <v>-0.68926052469546528</v>
       </c>
       <c r="I5" s="0">
-        <v>0.021444713451547789</v>
+        <v>-0.024554880545276388</v>
       </c>
       <c r="J5" s="0">
-        <v>0.67759402100469712</v>
+        <v>0.64433282357211275</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.04143131844637718</v>
+        <v>0.12409278247787547</v>
       </c>
       <c r="L5" s="0">
-        <v>0.00091626249320918111</v>
+        <v>0.40175942984074381</v>
       </c>
       <c r="M5" s="0">
-        <v>0.042539583473329035</v>
+        <v>0.64521705334029522</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.58832491139392529</v>
+        <v>0.080792332505392861</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.050155735132749936</v>
+        <v>0.33804902755708355</v>
       </c>
       <c r="P5" s="0">
-        <v>0.57919320410321107</v>
+        <v>0.59203504846959065</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.5896615968975375</v>
+        <v>-0.49971204264943714</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.014986559815449827</v>
+        <v>0.0044133041617855813</v>
       </c>
       <c r="S5" s="0">
-        <v>0.58351144333473703</v>
+        <v>0.51578907669389329</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.76003471349353968</v>
+        <v>-0.4483813396694995</v>
       </c>
       <c r="U5" s="0">
-        <v>0.63023272690496879</v>
+        <v>0.26542376076709884</v>
       </c>
       <c r="V5" s="0">
-        <v>0.76874919592375046</v>
+        <v>0.81234523226817767</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.3838737186704998</v>
+        <v>-0.69292818338967366</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.0088264863204729933</v>
+        <v>-0.051543880684395665</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.35107090448198425</v>
+        <v>0.63241083452514746</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.37073559321544003</v>
+        <v>-0.80522426726972474</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.013309339278850793</v>
+        <v>0.029515566397336435</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.37386450343828692</v>
+        <v>0.7897176473522054</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>-0.025145069388188376</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.50147660068829514</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>0.59307207292034625</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>-0.76427438938631576</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>-0.74012062236328935</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>0.62257892091200384</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>0.73636498171363618</v>
+      </c>
+      <c r="AJ5" s="0">
+        <v>0.76897617158432907</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>-0.36871823721702951</v>
+      </c>
+      <c r="AL5" s="0">
+        <v>-0.28743888177185328</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>0.043525369301608142</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>0.31167661904425364</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>0.38414283271641314</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>-0.362957180836046</v>
+      </c>
+      <c r="AQ5" s="0">
+        <v>-0.29193117761448051</v>
+      </c>
+      <c r="AR5" s="0">
+        <v>-0.0032287339585022525</v>
+      </c>
+      <c r="AS5" s="0">
+        <v>0.287551565112943</v>
+      </c>
+      <c r="AT5" s="0">
+        <v>0.3725366776156801</v>
       </c>
     </row>
     <row r="6">
@@ -613,85 +955,139 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.046246180810088751</v>
+        <v>0.1232893403498749</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0020217892478988277</v>
+        <v>0.48545101726075279</v>
       </c>
       <c r="D6" s="0">
-        <v>0.049799364679757895</v>
+        <v>0.76236555203036827</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.50394456337170102</v>
+        <v>-0.707806551919551</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.047363469046041717</v>
+        <v>-0.41118605661415952</v>
       </c>
       <c r="G6" s="0">
-        <v>0.51042737951593364</v>
+        <v>-0.11772276291694442</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.50666212737073013</v>
+        <v>-0.61724757352545767</v>
       </c>
       <c r="I6" s="0">
-        <v>0.022634060971296568</v>
+        <v>-0.015104187682068657</v>
       </c>
       <c r="J6" s="0">
-        <v>0.49773105702602105</v>
+        <v>0.58656831207047722</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.053866395796338493</v>
+        <v>0.13570872103528031</v>
       </c>
       <c r="L6" s="0">
-        <v>0.0015792014261857635</v>
+        <v>0.41005527964880017</v>
       </c>
       <c r="M6" s="0">
-        <v>0.05467745964710731</v>
+        <v>0.64922353662302557</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.55979409942094294</v>
+        <v>0.071016294582956274</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.032097418299727468</v>
+        <v>0.32672783300808084</v>
       </c>
       <c r="P6" s="0">
-        <v>0.54749267579732486</v>
+        <v>0.58731315113692539</v>
       </c>
       <c r="Q6" s="0">
-        <v>-0.56472386590218326</v>
+        <v>-0.4998362624830669</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.0043691120031945276</v>
+        <v>0.001156461993276695</v>
       </c>
       <c r="S6" s="0">
-        <v>0.55737470935280964</v>
+        <v>0.52088449796204983</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.7022136516023163</v>
+        <v>-0.44162879337468591</v>
       </c>
       <c r="U6" s="0">
-        <v>0.56635577177769902</v>
+        <v>0.28307760970499229</v>
       </c>
       <c r="V6" s="0">
-        <v>0.71039310593599292</v>
+        <v>0.83275781165254648</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.45120910528948571</v>
+        <v>-0.70028916728414181</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.0036195970315618842</v>
+        <v>-0.061237320351237093</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.42450413124326969</v>
+        <v>0.62009186801207217</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.43553845608292263</v>
+        <v>-0.81046668140039091</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.02084247888345429</v>
+        <v>0.027710407769253265</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.43418100999538434</v>
+        <v>0.79420993457209177</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>-0.03568319830002524</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>0.4721140097696323</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>0.55789683131606194</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>-0.70928218998136883</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>-0.68308382673888113</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>0.55385142772721485</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>0.67691013300501934</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>0.71066520141027401</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>-0.43247332632260493</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>-0.34472205695353786</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>0.043031461658597822</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>0.37380736907475021</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>0.44790266022600084</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>-0.42875031963825316</v>
+      </c>
+      <c r="AQ6" s="0">
+        <v>-0.34400027496260355</v>
+      </c>
+      <c r="AR6" s="0">
+        <v>0.0014108438464194152</v>
+      </c>
+      <c r="AS6" s="0">
+        <v>0.343259289314647</v>
+      </c>
+      <c r="AT6" s="0">
+        <v>0.43540423189950161</v>
       </c>
     </row>
     <row r="7">
@@ -699,85 +1095,139 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.064849431538444191</v>
+        <v>0.09919328749337758</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.00069817596568327238</v>
+        <v>0.42269267351434719</v>
       </c>
       <c r="D7" s="0">
-        <v>0.067061558578337732</v>
+        <v>0.67915143782592835</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.36771234175833706</v>
+        <v>-0.64247991684186911</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.026599288373160248</v>
+        <v>-0.37313693175901852</v>
       </c>
       <c r="G7" s="0">
-        <v>0.37464414346499886</v>
+        <v>-0.11563511074268432</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.37146704150059173</v>
+        <v>-0.54276583946087964</v>
       </c>
       <c r="I7" s="0">
-        <v>0.018138460908039812</v>
+        <v>-0.02048445900863944</v>
       </c>
       <c r="J7" s="0">
-        <v>0.36246024556037965</v>
+        <v>0.5168907719953777</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.064651945182852694</v>
+        <v>0.13936356598877914</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.00081286776158585893</v>
+        <v>0.42159866565768844</v>
       </c>
       <c r="M7" s="0">
-        <v>0.064507645715817269</v>
+        <v>0.65408912941322384</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.52735124191001348</v>
+        <v>0.062699452398369146</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.03120813568265483</v>
+        <v>0.31774302927833342</v>
       </c>
       <c r="P7" s="0">
-        <v>0.51303232934760223</v>
+        <v>0.58259709832427087</v>
       </c>
       <c r="Q7" s="0">
-        <v>-0.53724556971685367</v>
+        <v>-0.51049000359735675</v>
       </c>
       <c r="R7" s="0">
-        <v>0.0024013163714469475</v>
+        <v>0.00070931224038030976</v>
       </c>
       <c r="S7" s="0">
-        <v>0.52440873895254647</v>
+        <v>0.52376266873157684</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.65282272619929937</v>
+        <v>-0.42656305285426654</v>
       </c>
       <c r="U7" s="0">
-        <v>0.50039565413899545</v>
+        <v>0.30147199244643474</v>
       </c>
       <c r="V7" s="0">
-        <v>0.66347113639944166</v>
+        <v>0.83731892316158096</v>
       </c>
       <c r="W7" s="0">
-        <v>-0.50705193419469308</v>
+        <v>-0.7059652755304795</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.0065206178978043979</v>
+        <v>-0.0732572935033214</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.48164399140645664</v>
+        <v>0.61274289470792898</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.49407357793890039</v>
+        <v>-0.81178412256532373</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.023311173218143889</v>
+        <v>0.022949698183953517</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.4843558035547233</v>
+        <v>0.79445430121834582</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>-0.022218139727748644</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>0.4380071310723368</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>0.5265968571352917</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>-0.66719340409072048</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>-0.62937386079657487</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>0.48260786691564367</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>0.62113831168007094</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>0.6574453611425557</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>-0.48500877694097611</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>-0.3878141408731986</v>
+      </c>
+      <c r="AM7" s="0">
+        <v>0.057139077667204677</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>0.42144146381563141</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>0.49787058202564111</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>-0.47792431168049521</v>
+      </c>
+      <c r="AQ7" s="0">
+        <v>-0.37901172795502014</v>
+      </c>
+      <c r="AR7" s="0">
+        <v>-0.00029285277530818437</v>
+      </c>
+      <c r="AS7" s="0">
+        <v>0.38283130539732679</v>
+      </c>
+      <c r="AT7" s="0">
+        <v>0.49029758443710597</v>
       </c>
     </row>
   </sheetData>
